--- a/cases.xlsx
+++ b/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>method</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"X-Lemonban-Media-Type": "lemonban.v2"}</t>
   </si>
   <si>
@@ -58,11 +54,30 @@
     <t>{'code': '20103', 'data': None, 'msg': '手机号不能为空', 'status': 0}</t>
   </si>
   <si>
-    <t>{"mobilephone": "18111111111", "pwd": "123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': '10001', 'data': None, 'msg': '登录成功', 'status': 1}</t>
+    <t>https://sso-qa.gaiaworkforce.com/auth/realms/hronehrcore/protocol/openid-connect/token</t>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"client_id":"wfm4",
+"client_secret":"gaiaworks",
+"grant_type":"password",
+"mode":"",
+"password":"76099f06121745161f0c61d2c36c5ce3af768a03668edbd2bb49e5807184c77d74bc22538b794cbdfdf42201f6d0502b8c63cad20c8a9ed7035ff7a175fdb260",
+"username":"77777"
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get token success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -111,11 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,69 +415,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="125">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/cases.xlsx
+++ b/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>method</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>{'code': '20103', 'data': None, 'msg': '手机号不能为空', 'status': 0}</t>
-  </si>
-  <si>
-    <t>https://sso-qa.gaiaworkforce.com/auth/realms/hronehrcore/protocol/openid-connect/token</t>
   </si>
   <si>
     <t>case_id</t>
@@ -76,7 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get token success</t>
+    <t>https://sso-qa.gaiaworkforce.com/auth/realms/hronehrcore/protocol/openid-connect/token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +102,14 @@
       <name val="JetBrains Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,10 +128,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -135,9 +141,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,7 +426,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -431,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -453,20 +461,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+      <c r="F2">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -491,7 +499,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>